--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Carter.Spring.012320.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Carter.Spring.012320.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -555,12 +555,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -807,12 +807,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1227,12 +1227,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1437,12 +1437,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1479,12 +1479,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1605,12 +1605,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2193,12 +2193,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2319,12 +2319,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2907,12 +2907,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2991,12 +2991,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3453,12 +3453,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3621,12 +3621,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3831,12 +3831,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3999,12 +3999,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4125,12 +4125,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4503,12 +4503,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4839,12 +4839,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4923,12 +4923,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5091,12 +5091,12 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5595,12 +5595,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6183,12 +6183,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6435,12 +6435,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6561,12 +6561,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6729,12 +6729,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6981,12 +6981,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -7065,12 +7065,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7779,12 +7779,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7905,12 +7905,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7989,12 +7989,12 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8157,12 +8157,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8325,12 +8325,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8367,12 +8367,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8409,12 +8409,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9333,12 +9333,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9375,12 +9375,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9921,12 +9921,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10593,12 +10593,12 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10677,12 +10677,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10719,12 +10719,12 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11013,12 +11013,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11097,12 +11097,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11391,12 +11391,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11475,12 +11475,12 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12277,12 +12277,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12403,12 +12403,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12529,12 +12529,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12781,12 +12781,12 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13369,12 +13369,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13579,12 +13579,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13873,12 +13873,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14209,12 +14209,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -14251,12 +14251,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14293,12 +14293,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14335,12 +14335,12 @@
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14419,12 +14419,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14503,12 +14503,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14587,12 +14587,12 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14671,12 +14671,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14797,12 +14797,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14881,12 +14881,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15091,12 +15091,12 @@
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15217,12 +15217,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15347,12 +15347,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15683,12 +15683,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16019,12 +16019,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16103,12 +16103,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16187,12 +16187,12 @@
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16481,12 +16481,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16607,12 +16607,12 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17529,12 +17529,12 @@
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17697,12 +17697,12 @@
       <c r="H411" t="inlineStr"/>
       <c r="I411" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17781,12 +17781,12 @@
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17991,12 +17991,12 @@
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18075,12 +18075,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18755,12 +18755,12 @@
       <c r="H436" t="inlineStr"/>
       <c r="I436" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18965,12 +18965,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19637,12 +19637,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19721,12 +19721,12 @@
       <c r="H459" t="inlineStr"/>
       <c r="I459" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20057,12 +20057,12 @@
       <c r="H467" t="inlineStr"/>
       <c r="I467" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20351,12 +20351,12 @@
       <c r="H474" t="inlineStr"/>
       <c r="I474" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20939,12 +20939,12 @@
       <c r="H488" t="inlineStr"/>
       <c r="I488" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21149,12 +21149,12 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21191,12 +21191,12 @@
       <c r="H494" t="inlineStr"/>
       <c r="I494" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21569,12 +21569,12 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21737,12 +21737,12 @@
       <c r="H507" t="inlineStr"/>
       <c r="I507" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22031,12 +22031,12 @@
       <c r="H514" t="inlineStr"/>
       <c r="I514" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22115,12 +22115,12 @@
       <c r="H516" t="inlineStr"/>
       <c r="I516" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22367,12 +22367,12 @@
       <c r="H522" t="inlineStr"/>
       <c r="I522" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22871,12 +22871,12 @@
       <c r="H534" t="inlineStr"/>
       <c r="I534" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22913,12 +22913,12 @@
       <c r="H535" t="inlineStr"/>
       <c r="I535" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23123,12 +23123,12 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23925,12 +23925,12 @@
       <c r="H559" t="inlineStr"/>
       <c r="I559" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24009,12 +24009,12 @@
       <c r="H561" t="inlineStr"/>
       <c r="I561" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24093,12 +24093,12 @@
       <c r="H563" t="inlineStr"/>
       <c r="I563" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24177,12 +24177,12 @@
       <c r="H565" t="inlineStr"/>
       <c r="I565" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24345,12 +24345,12 @@
       <c r="H569" t="inlineStr"/>
       <c r="I569" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24849,12 +24849,12 @@
       <c r="H581" t="inlineStr"/>
       <c r="I581" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
